--- a/定价调额模型/模型文档.xlsx
+++ b/定价调额模型/模型文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenzhouyang/工作/工作文档/模型文档/定价调额模型/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA669E-8884-BB43-9D08-8F5D6528CECD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54CA7B1-884E-B34D-BAB0-ACC7C1C74F83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{BEB97A49-CD89-3045-9BDE-A3CBF1A66A65}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" activeTab="2" xr2:uid="{BEB97A49-CD89-3045-9BDE-A3CBF1A66A65}"/>
   </bookViews>
   <sheets>
     <sheet name="每日动支情况" sheetId="2" r:id="rId1"/>
@@ -16901,7 +16901,7 @@
   <dimension ref="A1:C869"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
